--- a/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>-3,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-5,17%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 3,15</t>
+          <t>-7,65; 2,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 5,1</t>
+          <t>-1,17; 7,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 9,76</t>
+          <t>-0,7; 8,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 3,65</t>
+          <t>-4,88; 4,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 21,91</t>
+          <t>-5,14; 2,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 45,22</t>
+          <t>-8,3; -0,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 69,59</t>
+          <t>-9,37; 2,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,76</t>
+          <t>-1,43; 10,06</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 11,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 6,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,0; 3,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; -0,14</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 7,13</t>
+          <t>2,76; 14,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,81</t>
+          <t>-4,07; 5,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 4,62</t>
+          <t>-4,85; 6,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 11,21</t>
+          <t>-2,66; 10,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 60,71</t>
+          <t>-7,4; 10,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 21,16</t>
+          <t>-9,87; 6,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 34,23</t>
+          <t>3,73; 21,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 15,98</t>
+          <t>-4,7; 7,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 8,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,15; 14,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; 13,62</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-11,37; 8,45</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>41,43%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-35,75%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-1,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 15,26</t>
+          <t>-12,06; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 0,66</t>
+          <t>0,2; 19,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 9,18</t>
+          <t>-9,19; 9,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-4,15; 21,34</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-24,92; 184,37</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,91; 6,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 64,93</t>
+          <t>-14,54; 23,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,12; 27,21</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 12,03</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 31,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,24%</t>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,97</t>
+          <t>-1,68; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 2,32</t>
+          <t>-0,13; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,11</t>
+          <t>-1,57; 4,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,17</t>
+          <t>-1,93; 5,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,86; 29,35</t>
+          <t>-4,7; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 17,14</t>
+          <t>-7,75; -0,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 34,65</t>
+          <t>-2,13; 7,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,15</t>
+          <t>-0,15; 8,13</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 6,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 7,42</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 3,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,97; -0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,5</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-3,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>4,08%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-0,51%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-1,76%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-5,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.098113244716627</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.689649522867644</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.526021312480887</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.5499563756353631</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.495923659431164</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-4.260306219838183</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.0389973219777438</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.0471582044890566</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.04555500794289889</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.006590846330904556</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.0175534273948979</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.05028571167080596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 2,23</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 7,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 8,6</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,88; 4,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 2,78</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-8,3; -0,13</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,37; 2,96</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 10,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 11,6</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 6,12</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-6,0; 3,27</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; -0,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.076113141618547</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7124740862177114</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8996084512651846</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-5.052268560849423</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-5.137193124602056</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-8.133807289379909</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.09787978403900952</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.008564080077561995</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.01116646320508687</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.05930640041092752</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.06003975876599375</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.09471734586229887</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.281798629256885</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.351160330448554</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.552869185195206</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.670894599198158</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.779114279312537</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.0156918885632577</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.03028797247092821</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1104538160612726</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.1152353506267096</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.05792431331049919</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.03272530148470735</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>-0.0002856764165352642</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,53</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,46</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,93%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-0,36%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,76; 14,99</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,07; 5,95</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 6,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 10,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 10,51</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,87; 6,76</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 21,65</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 7,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 8,17</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 14,01</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 13,62</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-11,37; 8,45</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.520262467048834</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.598618644786998</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.1245520542820677</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.630754014944348</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.3052680617797954</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-2.386472367219106</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.1164871843378061</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.0194511137099446</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.001598735590811822</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.04648021777216457</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.003606246019082066</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.02869972248894741</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,54</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,12</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-1,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,32%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,65%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.602748460639894</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.807281841174104</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.37036898110123</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.500306231271699</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.402355114763225</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-9.817872121783401</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.03523974693766519</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.0445113887534894</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.06625105493985976</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.03034203518064975</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.08313055401373774</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1121453389944814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,06; 14,8</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 19,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,19; 9,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 21,34</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 23,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 27,21</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-10,75; 12,03</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-4,48; 31,13</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.5605422757447</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.363209589104906</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.053257536393977</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.49795815810946</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.50830137638041</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>6.291307307120015</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2295492209481331</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.0792651891362692</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.08106052846508222</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1431199941286366</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1362018371284925</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.07844081773809626</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,21</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-3,92</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-1,44%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-4,65%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.273150810595617</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.314115994606942</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1749728768934533</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>7.715305196167598</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.05595242741410845</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.117917393720067</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.002116183724430483</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.09678194190366034</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,68; 5,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 6,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 4,98</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 5,84</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 2,66</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; -0,14</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 7,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 8,13</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 6,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 7,42</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-5,43; 3,22</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; -0,17</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.22364887613765</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.205416777796162</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.111691431146575</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.581739271242997</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.1947762357222774</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.002876328889980572</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1066563559488089</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.04047318808818612</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.9564666787285</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>18.54543950643557</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.314504746510877</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.28218275867446</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.1639889208551706</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2496767999036633</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1234140154428559</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3338817715429303</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.391154745116785</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.46702839345302</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.759573946685011</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.136649381734823</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-1.22340306905695</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-3.81743016938364</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01816991569508393</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.04339415081989359</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.02248202361359574</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.02643098562894524</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01437863407198231</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.04525834903191039</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.472461065160739</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.08472086741947962</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.699495650916354</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.150622266118321</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.698591987389897</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-7.683892793591836</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03121605774459601</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.00134724225677968</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.02133559762166257</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.02538110566032845</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.05430298117388112</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.08866264919435603</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.185809160436142</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.850397053876205</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.029556871783212</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.769937308193616</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.657466214256889</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.04431243957562906</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.06992933876386964</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.08815631123831899</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.06587466714887959</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.07353318595797725</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.03215460678472714</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.0001509536059291651</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
